--- a/BackTest/2020-01-13 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-13 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,7 +1309,7 @@
         <v>-239851.4059874896</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-278143.0356874896</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-126320.7231242995</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-186583.9786722616</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-154836.0883722616</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-162485.4701722616</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-160441.0709722616</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-160441.0709722616</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-161977.7437722616</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-646672.8367722617</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-646632.8367722617</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-647812.8061722616</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-665086.8061722616</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-732560.5991722615</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-743560.5991722615</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-758345.9976722616</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-748719.4349722615</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-766451.4238722615</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1251457.669772262</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1251063.391972261</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1417303.789772261</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1407303.789772261</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1400688.293272262</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1406413.293272262</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5467,10 +5467,14 @@
         <v>-2203369.174297812</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5500,54 +5504,60 @@
         <v>-2225268.683297812</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>12.7</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28119.4524</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2253388.135697812</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="J156" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28119.4524</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2253388.135697812</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5576,10 +5586,14 @@
         <v>-2241758.389697812</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,10 +5627,14 @@
         <v>-2241758.389697812</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,10 +5668,14 @@
         <v>-2231758.389697812</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,10 +5709,14 @@
         <v>-2233282.372197812</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,10 +5750,14 @@
         <v>-2229959.984197812</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,7 +5794,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,7 +5833,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,7 +5872,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,7 +5950,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,7 +6028,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,7 +6067,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,7 +6106,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,7 +6184,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6223,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6301,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6379,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,7 +6418,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,7 +6457,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,7 +6496,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,7 +6535,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,7 +6574,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,7 +6652,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6615,7 +6691,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,7 +6730,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,7 +6769,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,7 +6808,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,7 +6847,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6800,7 +6886,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,7 +6925,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,7 +6964,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +7003,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,7 +7042,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7081,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,7 +7120,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,7 +7159,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,7 +7198,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,7 +7237,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,12 +7273,12 @@
         <v>-2667871.875797812</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,12 +7312,12 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,12 +7351,12 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,12 +7390,12 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,12 +7429,12 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,12 +7468,14 @@
         <v>-2671204.276697812</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>12.64</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,12 +7509,12 @@
         <v>-2668543.109397812</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,12 +7548,14 @@
         <v>-2645719.177897812</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>12.81</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,12 +7589,12 @@
         <v>-2646958.352797812</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,12 +7628,12 @@
         <v>-2444026.576897812</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,12 +7667,12 @@
         <v>-2416340.170497812</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,7 +7709,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7636,7 +7748,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,7 +7787,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,7 +7826,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7747,7 +7865,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7784,7 +7904,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,7 +7943,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,7 +7982,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,7 +8021,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,7 +8060,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,7 +8099,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,7 +8138,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,7 +8177,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,7 +8216,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +8255,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,7 +8294,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,7 +8333,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,7 +8372,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,7 +8411,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8302,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,7 +8489,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,7 +8528,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8413,7 +8567,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,7 +8606,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,7 +8645,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,7 +8684,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,7 +8723,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,7 +8762,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,7 +8801,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,7 +8840,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,7 +8879,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,7 +8918,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,10 +8954,12 @@
         <v>-1099566.743674924</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,7 +8996,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,7 +9035,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,7 +9074,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,10 +9110,12 @@
         <v>-1344346.642474924</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8965,10 +9149,12 @@
         <v>-1327339.719374924</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,10 +9188,12 @@
         <v>-1327339.719374924</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,10 +9227,12 @@
         <v>-1328382.268984434</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,10 +9266,12 @@
         <v>-1327138.809784434</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,7 +9308,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,7 +9347,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,7 +9386,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,10 +9422,12 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,7 +9464,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,10 +9500,12 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,10 +9539,12 @@
         <v>-1476280.142984434</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,10 +9578,12 @@
         <v>-1489492.142984434</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9409,10 +9617,12 @@
         <v>-1489492.142984434</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,7 +9659,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,7 +9698,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,7 +9737,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +9776,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,7 +9815,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,7 +9854,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,149 +9890,179 @@
         <v>-176221.7079007404</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12.58</v>
+      </c>
       <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="C268" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="D268" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="E268" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="F268" t="n">
+        <v>216978.2611</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-393199.9690007404</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="C269" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="D269" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="F269" t="n">
+        <v>112959.6326</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-506159.6016007404</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="C270" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D270" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="E270" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="F270" t="n">
+        <v>462098.0340531066</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-44061.56754763378</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="C271" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="E271" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F271" t="n">
+        <v>94921.9828</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-138983.5503476338</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="C268" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="D268" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="E268" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="F268" t="n">
-        <v>216978.2611</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-393199.9690007404</v>
-      </c>
-      <c r="H268" t="n">
-        <v>3</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="C269" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="D269" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="E269" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="F269" t="n">
-        <v>112959.6326</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-506159.6016007404</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="C270" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="D270" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="E270" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="F270" t="n">
-        <v>462098.0340531066</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-44061.56754763378</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="C271" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D271" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="E271" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F271" t="n">
-        <v>94921.9828</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-138983.5503476338</v>
-      </c>
-      <c r="H271" t="n">
-        <v>3</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>1.155572337042925</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1.12684124386252</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9835,7 +10087,7 @@
         <v>59615.41870459073</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9868,7 +10120,7 @@
         <v>-275702.6015954092</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9901,7 +10153,7 @@
         <v>-370598.3835954092</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9934,7 +10186,7 @@
         <v>-591519.5497954092</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9967,7 +10219,7 @@
         <v>-668742.6565954091</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10000,7 +10252,7 @@
         <v>-809750.7341954091</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10033,7 +10285,7 @@
         <v>-795257.2988954091</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10066,7 +10318,7 @@
         <v>-820958.9421954091</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10099,7 +10351,7 @@
         <v>-844312.5689954091</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10132,7 +10384,7 @@
         <v>-694855.7133954091</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10165,7 +10417,7 @@
         <v>-736155.7133954091</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10198,7 +10450,7 @@
         <v>-718605.570395409</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10231,7 +10483,7 @@
         <v>-678089.460295409</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10264,7 +10516,7 @@
         <v>-817488.174895409</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10297,7 +10549,7 @@
         <v>-1029948.169995409</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10330,7 +10582,7 @@
         <v>-1018971.925395409</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10363,7 +10615,7 @@
         <v>-1038518.317095409</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10396,7 +10648,7 @@
         <v>-1038518.317095409</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10429,7 +10681,7 @@
         <v>-1090304.647395409</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10462,7 +10714,7 @@
         <v>-905879.5698954089</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10495,7 +10747,7 @@
         <v>-905879.5698954089</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10528,7 +10780,7 @@
         <v>-1008719.426095409</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10561,7 +10813,7 @@
         <v>-1008682.426095409</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10594,7 +10846,7 @@
         <v>-1021080.522295409</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10627,7 +10879,7 @@
         <v>-1021080.522295409</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10660,7 +10912,7 @@
         <v>-1098596.010795409</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10693,7 +10945,7 @@
         <v>-1098559.010795409</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10726,7 +10978,7 @@
         <v>-1121739.010795409</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10759,7 +11011,7 @@
         <v>-1113054.326995409</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10792,7 +11044,7 @@
         <v>-1065708.934695409</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10858,7 +11110,7 @@
         <v>-937450.9242954091</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10891,7 +11143,7 @@
         <v>-941149.8847954092</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10957,7 +11209,7 @@
         <v>-986733.6848954092</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10990,7 +11242,7 @@
         <v>-1301010.063195409</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11023,7 +11275,7 @@
         <v>-1300972.063195409</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11056,7 +11308,7 @@
         <v>-1300675.098595409</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11089,7 +11341,7 @@
         <v>-1405167.816295409</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11122,7 +11374,7 @@
         <v>-1483753.278495409</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11155,7 +11407,7 @@
         <v>-1399372.277495409</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -13531,14 +13783,10 @@
         <v>-2179504.373718833</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J384" t="n">
-        <v>12.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
@@ -13571,14 +13819,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13607,19 +13849,11 @@
         <v>-1968431.766318833</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="J386" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -16717,7 +16951,7 @@
         <v>-1502309.88289177</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16750,7 +16984,7 @@
         <v>-1595299.63109177</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16783,7 +17017,7 @@
         <v>-1595167.63109177</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16816,7 +17050,7 @@
         <v>-1697690.81329177</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17047,14 +17281,10 @@
         <v>-1284720.99539177</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="J490" t="n">
-        <v>13.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
@@ -17087,14 +17317,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17126,14 +17350,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +18106,7 @@
         <v>-1531079.369903126</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18130,6 +18348,6 @@
       <c r="M522" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-13 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-120670.7231242995</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-150818.0883722616</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-154836.0883722616</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-162485.4701722616</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-160441.0709722616</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-160441.0709722616</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-646632.8367722617</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-743560.5991722615</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-743297.7828722616</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-758345.9976722616</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-748719.4349722615</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-766451.4238722615</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1251457.669772262</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1251063.391972261</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1407303.789772261</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1400688.293272262</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1406413.293272262</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5467,14 +5467,10 @@
         <v>-2203369.174297812</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5504,2102 +5500,1808 @@
         <v>-2225268.683297812</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28119.4524</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2253388.135697812</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11629.746</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2241758.389697812</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F158" t="n">
+        <v>53096.3752</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2241758.389697812</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2231758.389697812</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>12.7</v>
       </c>
-      <c r="J155" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="C160" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1523.9825</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2233282.372197812</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3322.388</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2229959.984197812</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="F162" t="n">
+        <v>27590.4705</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2202369.513697812</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="F163" t="n">
+        <v>440</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2201929.513697812</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="F164" t="n">
+        <v>115398.7186</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2317328.232297812</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="F165" t="n">
+        <v>300</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2317028.232297812</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1329.746</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2318357.978297812</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1446.7946</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2318357.978297812</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="F168" t="n">
+        <v>117.7999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2318240.178397812</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>108242.0487</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2426482.227097812</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6864.7952</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2426482.227097812</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F171" t="n">
+        <v>148594.0612</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2575076.288297812</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F172" t="n">
+        <v>105862.0014</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2469214.286897812</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F173" t="n">
+        <v>40</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2469174.286897812</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11752.452</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2469174.286897812</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="C175" t="n">
+        <v>13</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="F175" t="n">
+        <v>37497.3376</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2431676.949297812</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>13</v>
+      </c>
+      <c r="C176" t="n">
+        <v>13</v>
+      </c>
+      <c r="D176" t="n">
+        <v>13</v>
+      </c>
+      <c r="E176" t="n">
+        <v>13</v>
+      </c>
+      <c r="F176" t="n">
+        <v>34684.018</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2431676.949297812</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7977.5293</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2439654.478597812</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F178" t="n">
+        <v>145.2852</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2439509.193397812</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F179" t="n">
+        <v>337.4387</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2439846.632097812</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F180" t="n">
+        <v>40</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2439806.632097812</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6761.5919</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2446568.223997812</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="F182" t="n">
+        <v>40</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2446528.223997812</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F183" t="n">
+        <v>40</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2446568.223997812</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F184" t="n">
+        <v>46644.7935</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2493213.017497812</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="F185" t="n">
+        <v>23179</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2516392.017497812</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2468.1565</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2518860.173997812</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7727</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2511133.173997812</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="F188" t="n">
+        <v>98505.26270000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2609638.436697812</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>39</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2609599.436697812</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>316.9903</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2609599.436697812</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6864.7952</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2616464.231897812</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4276.0513</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2616464.231897812</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>39</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-2616425.231897812</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="F194" t="n">
+        <v>97255.899</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-2713681.130897812</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22423.9998</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-2691257.131097812</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1842.655</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-2691257.131097812</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1478.7619</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2692735.892997812</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C198" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4547.8693</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2697283.762297812</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10057.2569</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2687226.505397812</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F200" t="n">
+        <v>19354.6296</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2667871.875797812</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3371.4009</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-2671243.276697812</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F202" t="n">
+        <v>28.5991</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2671243.276697812</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6933.4084</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2671243.276697812</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J203" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28119.4524</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2253388.135697812</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="J156" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1239.1749</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2671243.276697812</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J204" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2671204.276697812</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J205" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2661.1673</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2668543.109397812</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J206" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C207" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D207" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22823.9315</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2645719.177897812</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="J207" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D208" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1239.1749</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2646958.352797812</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="J208" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F157" t="n">
-        <v>11629.746</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2241758.389697812</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="J157" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C158" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F158" t="n">
-        <v>53096.3752</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2241758.389697812</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J158" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="C159" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="D159" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="F159" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2231758.389697812</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J159" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1523.9825</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2233282.372197812</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="J160" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="C161" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="E161" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3322.388</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2229959.984197812</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J161" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="C162" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="D162" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="E162" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="F162" t="n">
-        <v>27590.4705</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2202369.513697812</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="C163" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D163" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F163" t="n">
-        <v>440</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2201929.513697812</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="C164" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="D164" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E164" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="F164" t="n">
-        <v>115398.7186</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2317328.232297812</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="C165" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="D165" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="E165" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="F165" t="n">
-        <v>300</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2317028.232297812</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="C166" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="D166" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="E166" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1329.746</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2318357.978297812</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="C167" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="D167" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="E167" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1446.7946</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2318357.978297812</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="C168" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E168" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F168" t="n">
-        <v>117.7999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2318240.178397812</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="C169" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D169" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="E169" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F169" t="n">
-        <v>108242.0487</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2426482.227097812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C170" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D170" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E170" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6864.7952</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2426482.227097812</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="C171" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="E171" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F171" t="n">
-        <v>148594.0612</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2575076.288297812</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="C172" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="E172" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F172" t="n">
-        <v>105862.0014</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2469214.286897812</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="C173" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D173" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="E173" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F173" t="n">
-        <v>40</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2469174.286897812</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="C174" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D174" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="E174" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F174" t="n">
-        <v>11752.452</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2469174.286897812</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="C175" t="n">
-        <v>13</v>
-      </c>
-      <c r="D175" t="n">
-        <v>13</v>
-      </c>
-      <c r="E175" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="F175" t="n">
-        <v>37497.3376</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2431676.949297812</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>13</v>
-      </c>
-      <c r="C176" t="n">
-        <v>13</v>
-      </c>
-      <c r="D176" t="n">
-        <v>13</v>
-      </c>
-      <c r="E176" t="n">
-        <v>13</v>
-      </c>
-      <c r="F176" t="n">
-        <v>34684.018</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2431676.949297812</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="C177" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E177" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F177" t="n">
-        <v>7977.5293</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2439654.478597812</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C178" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="D178" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="E178" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F178" t="n">
-        <v>145.2852</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2439509.193397812</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="C179" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="E179" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F179" t="n">
-        <v>337.4387</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2439846.632097812</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F180" t="n">
-        <v>40</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2439806.632097812</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D181" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="E181" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F181" t="n">
-        <v>6761.5919</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2446568.223997812</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="C182" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="D182" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="E182" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="F182" t="n">
-        <v>40</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-2446528.223997812</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="C183" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="D183" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="E183" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F183" t="n">
-        <v>40</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-2446568.223997812</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F184" t="n">
-        <v>46644.7935</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2493213.017497812</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="F185" t="n">
-        <v>23179</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2516392.017497812</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2468.1565</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2518860.173997812</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="F187" t="n">
-        <v>7727</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2511133.173997812</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="C188" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="D188" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="F188" t="n">
-        <v>98505.26270000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2609638.436697812</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C189" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D189" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E189" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F189" t="n">
-        <v>39</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2609599.436697812</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D190" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F190" t="n">
-        <v>316.9903</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2609599.436697812</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C191" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="D191" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E191" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="F191" t="n">
-        <v>6864.7952</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2616464.231897812</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="D192" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="F192" t="n">
-        <v>4276.0513</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-2616464.231897812</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C193" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D193" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F193" t="n">
-        <v>39</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2616425.231897812</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="F194" t="n">
-        <v>97255.899</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2713681.130897812</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F195" t="n">
-        <v>22423.9998</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2691257.131097812</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="C196" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D196" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E196" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1842.655</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2691257.131097812</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1478.7619</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2692735.892997812</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D198" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F198" t="n">
-        <v>4547.8693</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2697283.762297812</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="C199" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="D199" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="F199" t="n">
-        <v>10057.2569</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2687226.505397812</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E200" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F200" t="n">
-        <v>19354.6296</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2667871.875797812</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C201" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D201" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E201" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3371.4009</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2671243.276697812</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F202" t="n">
-        <v>28.5991</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2671243.276697812</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F203" t="n">
-        <v>6933.4084</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2671243.276697812</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C204" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D204" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E204" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1239.1749</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2671243.276697812</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C205" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D205" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E205" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F205" t="n">
-        <v>39</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2671204.276697812</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J205" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="C206" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="D206" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="E206" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2661.1673</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2668543.109397812</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="C207" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="D207" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="E207" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="F207" t="n">
-        <v>22823.9315</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2645719.177897812</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="J207" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="C208" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D208" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="E208" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1239.1749</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2646958.352797812</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7330,13 @@
         <v>-2444026.576897812</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>12.75</v>
+      </c>
       <c r="J209" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7671,7 +7375,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7710,7 +7414,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7749,7 +7453,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7788,7 +7492,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7827,7 +7531,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7866,7 +7570,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7905,7 +7609,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7940,11 +7644,11 @@
         <v>-2088752.630797812</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7979,11 +7683,11 @@
         <v>-2078650.804597812</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8018,21 +7722,23 @@
         <v>-2104281.381297811</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>12.58</v>
+        <v>12.64</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>1.054335443037975</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1.12684124386252</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8060,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8099,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8174,17 +7862,11 @@
         <v>-2084875.370881776</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8216,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8255,14 +7931,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8294,14 +7964,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8333,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8372,14 +8030,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8411,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8450,14 +8096,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8489,14 +8129,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8528,14 +8162,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8567,14 +8195,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8606,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8645,14 +8261,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8684,14 +8294,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8720,17 +8324,11 @@
         <v>-1835074.165797811</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8759,17 +8357,11 @@
         <v>-1834600.711997811</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8798,17 +8390,11 @@
         <v>-1824464.756097812</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8837,17 +8423,11 @@
         <v>-1689068.93873988</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8876,17 +8456,11 @@
         <v>-1276612.291520391</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8918,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8957,14 +8525,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8996,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9035,14 +8591,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9074,14 +8624,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9113,14 +8657,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9152,14 +8690,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9191,14 +8723,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9230,14 +8756,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9266,17 +8786,11 @@
         <v>-1327138.809784434</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9305,17 +8819,11 @@
         <v>-1340119.170784434</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9344,17 +8852,11 @@
         <v>-1372144.150184434</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9383,17 +8885,11 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9422,17 +8918,11 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9461,17 +8951,11 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9500,17 +8984,11 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9542,14 +9020,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9581,14 +9053,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9620,14 +9086,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9659,14 +9119,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9698,14 +9152,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9737,14 +9185,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9776,14 +9218,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9815,14 +9251,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9854,14 +9284,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9893,14 +9317,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9932,14 +9350,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9971,14 +9383,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10010,14 +9416,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10046,23 +9446,15 @@
         <v>-138983.5503476338</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.155572337042925</v>
-      </c>
-      <c r="M271" t="n">
-        <v>1.12684124386252</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10087,7 +9479,7 @@
         <v>59615.41870459073</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10120,7 +9512,7 @@
         <v>-275702.6015954092</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10153,7 +9545,7 @@
         <v>-370598.3835954092</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10186,7 +9578,7 @@
         <v>-591519.5497954092</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10219,7 +9611,7 @@
         <v>-668742.6565954091</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10252,7 +9644,7 @@
         <v>-809750.7341954091</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10285,7 +9677,7 @@
         <v>-795257.2988954091</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10318,7 +9710,7 @@
         <v>-820958.9421954091</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10351,7 +9743,7 @@
         <v>-844312.5689954091</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10384,7 +9776,7 @@
         <v>-694855.7133954091</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10417,7 +9809,7 @@
         <v>-736155.7133954091</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10450,7 +9842,7 @@
         <v>-718605.570395409</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10483,7 +9875,7 @@
         <v>-678089.460295409</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10516,7 +9908,7 @@
         <v>-817488.174895409</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10549,7 +9941,7 @@
         <v>-1029948.169995409</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10582,7 +9974,7 @@
         <v>-1018971.925395409</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10615,7 +10007,7 @@
         <v>-1038518.317095409</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10648,7 +10040,7 @@
         <v>-1038518.317095409</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10681,7 +10073,7 @@
         <v>-1090304.647395409</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10714,7 +10106,7 @@
         <v>-905879.5698954089</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10747,7 +10139,7 @@
         <v>-905879.5698954089</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10780,7 +10172,7 @@
         <v>-1008719.426095409</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10813,7 +10205,7 @@
         <v>-1008682.426095409</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10846,7 +10238,7 @@
         <v>-1021080.522295409</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10879,7 +10271,7 @@
         <v>-1021080.522295409</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10912,7 +10304,7 @@
         <v>-1098596.010795409</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10945,7 +10337,7 @@
         <v>-1098559.010795409</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10978,7 +10370,7 @@
         <v>-1121739.010795409</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11011,7 +10403,7 @@
         <v>-1113054.326995409</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11044,7 +10436,7 @@
         <v>-1065708.934695409</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11110,7 +10502,7 @@
         <v>-937450.9242954091</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11143,7 +10535,7 @@
         <v>-941149.8847954092</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11209,7 +10601,7 @@
         <v>-986733.6848954092</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11242,7 +10634,7 @@
         <v>-1301010.063195409</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11275,7 +10667,7 @@
         <v>-1300972.063195409</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11308,7 +10700,7 @@
         <v>-1300675.098595409</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11341,7 +10733,7 @@
         <v>-1405167.816295409</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11374,7 +10766,7 @@
         <v>-1483753.278495409</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11407,7 +10799,7 @@
         <v>-1399372.277495409</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -16951,7 +16343,7 @@
         <v>-1502309.88289177</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18205,7 +17597,7 @@
         <v>-1944711.192703126</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18348,6 +17740,6 @@
       <c r="M522" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-13 BackTest ETZ.xlsx
@@ -2134,7 +2134,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-126320.7231242995</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-120670.7231242995</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-186583.9786722616</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-161977.7437722616</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-646672.8367722617</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-646632.8367722617</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-647812.8061722616</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-665086.8061722616</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-732560.5991722615</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -7018,11 +7018,17 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>12.83</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7056,10 +7062,12 @@
       <c r="I202" t="n">
         <v>12.64</v>
       </c>
-      <c r="J202" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7093,12 +7101,10 @@
       <c r="I203" t="n">
         <v>12.64</v>
       </c>
-      <c r="J203" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7134,12 +7140,10 @@
       <c r="I204" t="n">
         <v>12.64</v>
       </c>
-      <c r="J204" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7175,10 +7179,12 @@
       <c r="I205" t="n">
         <v>12.64</v>
       </c>
-      <c r="J205" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7212,12 +7218,10 @@
       <c r="I206" t="n">
         <v>12.73</v>
       </c>
-      <c r="J206" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7253,12 +7257,10 @@
       <c r="I207" t="n">
         <v>12.81</v>
       </c>
-      <c r="J207" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7294,12 +7296,10 @@
       <c r="I208" t="n">
         <v>12.85</v>
       </c>
-      <c r="J208" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -7335,9 +7335,7 @@
       <c r="I209" t="n">
         <v>12.75</v>
       </c>
-      <c r="J209" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7371,12 +7369,12 @@
         <v>-2416340.170497812</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>12.64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,12 +7408,12 @@
         <v>-2411536.571897812</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>12.64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7449,12 +7447,12 @@
         <v>-2409872.779997812</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>12.64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,9 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,9 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,9 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,9 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7644,12 +7634,10 @@
         <v>-2088752.630797812</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,12 +7671,10 @@
         <v>-2078650.804597812</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12.64</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,1738 +7708,1940 @@
         <v>-2104281.381297811</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C220" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="D220" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F220" t="n">
+        <v>14190</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2090091.381297811</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="C221" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="D221" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5306.010416034986</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2084785.370881776</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C222" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="D222" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="E222" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F222" t="n">
+        <v>40</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2084825.370881776</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C223" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D223" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F223" t="n">
+        <v>50</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2084875.370881776</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C224" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="D224" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="E224" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F224" t="n">
+        <v>37</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2084838.370881776</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E225" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F225" t="n">
+        <v>133247.5864</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1951590.784481776</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="D226" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="F226" t="n">
+        <v>20335.4883</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1931255.296181776</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="C227" t="n">
+        <v>14</v>
+      </c>
+      <c r="D227" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="E227" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="F227" t="n">
+        <v>253017.747483965</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1678237.548697811</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>14</v>
+      </c>
+      <c r="C228" t="n">
+        <v>14</v>
+      </c>
+      <c r="D228" t="n">
+        <v>14</v>
+      </c>
+      <c r="E228" t="n">
+        <v>14</v>
+      </c>
+      <c r="F228" t="n">
+        <v>98616.70540000001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1678237.548697811</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="C229" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>36</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1678201.548697811</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="C230" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="D230" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="E230" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F230" t="n">
+        <v>52433.9357</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1625767.612997811</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="C231" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="D231" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E231" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="F231" t="n">
+        <v>25547.2886</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1651314.901597811</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="D232" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E232" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="F232" t="n">
+        <v>72625.9235</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1723940.825097811</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D233" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F233" t="n">
+        <v>84116.9847</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1808057.809797811</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="D234" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F234" t="n">
+        <v>67467.05</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1875524.859797811</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="C235" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D235" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F235" t="n">
+        <v>59586.694</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1815938.165797811</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C236" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="D236" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F236" t="n">
+        <v>19136</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1835074.165797811</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C237" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="D237" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5898.5462</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1835074.165797811</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D238" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F238" t="n">
+        <v>473.4538</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1834600.711997811</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D239" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10135.9559</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1824464.756097812</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="D240" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>135395.817357932</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1689068.93873988</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="C241" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D241" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="E241" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="F241" t="n">
+        <v>412456.6472194883</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1276612.291520391</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="C242" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D242" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="E242" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="F242" t="n">
+        <v>21699.44693423989</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1276612.291520391</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="D243" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="E243" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F243" t="n">
+        <v>177045.5478454672</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1099566.743674924</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="C244" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D244" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="E244" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F244" t="n">
+        <v>17156.0072</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1116722.750874924</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="C245" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="D245" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="E245" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F245" t="n">
+        <v>77</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1116799.750874924</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="C246" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="D246" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="E246" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="F246" t="n">
+        <v>31978.1114</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1116799.750874924</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="C247" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D247" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="E247" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F247" t="n">
+        <v>227546.8916</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1344346.642474924</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="F248" t="n">
+        <v>17006.9231</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1327339.719374924</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E249" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>211.681</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1327339.719374924</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="C250" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D250" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1042.549609510086</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1328382.268984434</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="D251" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="E251" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1243.4592</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1327138.809784434</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="C252" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="D252" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F252" t="n">
+        <v>12980.361</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1340119.170784434</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F253" t="n">
+        <v>32024.9794</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1372144.150184434</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="C254" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D254" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F254" t="n">
+        <v>114492.6733</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1486636.823484434</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C255" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E255" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F255" t="n">
+        <v>98362.0278</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1486636.823484434</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="C256" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="D256" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F256" t="n">
+        <v>10316.6805</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1476320.142984434</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="D257" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="F257" t="n">
+        <v>9316</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1476320.142984434</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>14</v>
+      </c>
+      <c r="C258" t="n">
+        <v>14</v>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="n">
+        <v>14</v>
+      </c>
+      <c r="F258" t="n">
+        <v>40</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1476280.142984434</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C259" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D259" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F259" t="n">
+        <v>13212</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1489492.142984434</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D260" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E260" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F260" t="n">
+        <v>53.5668</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1489492.142984434</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C261" t="n">
+        <v>14</v>
+      </c>
+      <c r="D261" t="n">
+        <v>14</v>
+      </c>
+      <c r="E261" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F261" t="n">
+        <v>76043.30530000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1413448.837684434</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>411.5674</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1413037.270284434</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>14</v>
+      </c>
+      <c r="C263" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="D263" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E263" t="n">
+        <v>14</v>
+      </c>
+      <c r="F263" t="n">
+        <v>22035.67615658363</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1435072.946441018</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C264" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="D264" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="E264" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F264" t="n">
+        <v>178774.6500782538</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1256298.296362764</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="C265" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="D265" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E265" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F265" t="n">
+        <v>477241.4486620234</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-779056.8477007403</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="C266" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="D266" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="E266" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="F266" t="n">
+        <v>225858.8228</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-553198.0249007404</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="D267" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F267" t="n">
+        <v>376976.317</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-176221.7079007404</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="C268" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="D268" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="E268" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="F268" t="n">
+        <v>216978.2611</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-393199.9690007404</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="C269" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="D269" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="F269" t="n">
+        <v>112959.6326</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-506159.6016007404</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="C270" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D270" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="E270" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="F270" t="n">
+        <v>462098.0340531066</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-44061.56754763378</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="C271" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="E271" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F271" t="n">
+        <v>94921.9828</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-138983.5503476338</v>
+      </c>
+      <c r="H271" t="n">
         <v>2</v>
       </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1.054335443037975</v>
-      </c>
-      <c r="M219" t="n">
-        <v>1.12684124386252</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C220" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="D220" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="E220" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="F220" t="n">
-        <v>14190</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-2090091.381297811</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="C221" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="D221" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E221" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F221" t="n">
-        <v>5306.010416034986</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2084785.370881776</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="C222" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="D222" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="E222" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="F222" t="n">
-        <v>40</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2084825.370881776</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F223" t="n">
-        <v>50</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2084875.370881776</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="C224" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="D224" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="E224" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="F224" t="n">
-        <v>37</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2084838.370881776</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="C225" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="D225" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E225" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="F225" t="n">
-        <v>133247.5864</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1951590.784481776</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="C226" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="D226" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E226" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="F226" t="n">
-        <v>20335.4883</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1931255.296181776</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="C227" t="n">
-        <v>14</v>
-      </c>
-      <c r="D227" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="E227" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="F227" t="n">
-        <v>253017.747483965</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1678237.548697811</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>14</v>
-      </c>
-      <c r="C228" t="n">
-        <v>14</v>
-      </c>
-      <c r="D228" t="n">
-        <v>14</v>
-      </c>
-      <c r="E228" t="n">
-        <v>14</v>
-      </c>
-      <c r="F228" t="n">
-        <v>98616.70540000001</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1678237.548697811</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="C229" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="E229" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>36</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1678201.548697811</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="C230" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="D230" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="E230" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="F230" t="n">
-        <v>52433.9357</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1625767.612997811</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="C231" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="D231" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="E231" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="F231" t="n">
-        <v>25547.2886</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1651314.901597811</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="C232" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="D232" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="E232" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="F232" t="n">
-        <v>72625.9235</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1723940.825097811</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="C233" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="D233" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E233" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="F233" t="n">
-        <v>84116.9847</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1808057.809797811</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="C234" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="D234" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="E234" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F234" t="n">
-        <v>67467.05</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1875524.859797811</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="C235" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="D235" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="E235" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F235" t="n">
-        <v>59586.694</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1815938.165797811</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C236" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="D236" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="E236" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="F236" t="n">
-        <v>19136</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1835074.165797811</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="C237" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="D237" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="E237" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="F237" t="n">
-        <v>5898.5462</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1835074.165797811</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="C238" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="D238" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="E238" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="F238" t="n">
-        <v>473.4538</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1834600.711997811</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="C239" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D239" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E239" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F239" t="n">
-        <v>10135.9559</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1824464.756097812</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C240" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="D240" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="E240" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F240" t="n">
-        <v>135395.817357932</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1689068.93873988</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="C241" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="D241" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="E241" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="F241" t="n">
-        <v>412456.6472194883</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1276612.291520391</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="C242" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="D242" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="E242" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F242" t="n">
-        <v>21699.44693423989</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1276612.291520391</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C243" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="D243" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="E243" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F243" t="n">
-        <v>177045.5478454672</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1099566.743674924</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="C244" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="D244" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="E244" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="F244" t="n">
-        <v>17156.0072</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1116722.750874924</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="C245" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="D245" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="E245" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="F245" t="n">
-        <v>77</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1116799.750874924</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="C246" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="D246" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="E246" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="F246" t="n">
-        <v>31978.1114</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1116799.750874924</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="C247" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D247" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="E247" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F247" t="n">
-        <v>227546.8916</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1344346.642474924</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C248" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E248" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="F248" t="n">
-        <v>17006.9231</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1327339.719374924</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E249" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>211.681</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1327339.719374924</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="C250" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="D250" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="E250" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1042.549609510086</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1328382.268984434</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="C251" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="D251" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="E251" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1243.4592</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1327138.809784434</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="C252" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="D252" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="E252" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F252" t="n">
-        <v>12980.361</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1340119.170784434</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="C253" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="D253" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="E253" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F253" t="n">
-        <v>32024.9794</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1372144.150184434</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="C254" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D254" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="E254" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F254" t="n">
-        <v>114492.6733</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1486636.823484434</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="C255" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D255" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E255" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="F255" t="n">
-        <v>98362.0278</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1486636.823484434</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="C256" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="D256" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="E256" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="F256" t="n">
-        <v>10316.6805</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1476320.142984434</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="C257" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="D257" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="E257" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="F257" t="n">
-        <v>9316</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1476320.142984434</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>14</v>
-      </c>
-      <c r="C258" t="n">
-        <v>14</v>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="n">
-        <v>14</v>
-      </c>
-      <c r="F258" t="n">
-        <v>40</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1476280.142984434</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="C259" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="D259" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E259" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="F259" t="n">
-        <v>13212</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1489492.142984434</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="C260" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="D260" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E260" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="F260" t="n">
-        <v>53.5668</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1489492.142984434</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="C261" t="n">
-        <v>14</v>
-      </c>
-      <c r="D261" t="n">
-        <v>14</v>
-      </c>
-      <c r="E261" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="F261" t="n">
-        <v>76043.30530000001</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1413448.837684434</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C262" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E262" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>411.5674</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1413037.270284434</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>14</v>
-      </c>
-      <c r="C263" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="D263" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="E263" t="n">
-        <v>14</v>
-      </c>
-      <c r="F263" t="n">
-        <v>22035.67615658363</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1435072.946441018</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="C264" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="D264" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="E264" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="F264" t="n">
-        <v>178774.6500782538</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1256298.296362764</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="C265" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="D265" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="E265" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="F265" t="n">
-        <v>477241.4486620234</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-779056.8477007403</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="C266" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="D266" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="E266" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="F266" t="n">
-        <v>225858.8228</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-553198.0249007404</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C267" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="D267" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="E267" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F267" t="n">
-        <v>376976.317</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-176221.7079007404</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="C268" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="D268" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="E268" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="F268" t="n">
-        <v>216978.2611</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-393199.9690007404</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="C269" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="D269" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="E269" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="F269" t="n">
-        <v>112959.6326</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-506159.6016007404</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="C270" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="D270" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="E270" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="F270" t="n">
-        <v>462098.0340531066</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-44061.56754763378</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="C271" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D271" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="E271" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F271" t="n">
-        <v>94921.9828</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-138983.5503476338</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -9479,7 +9667,7 @@
         <v>59615.41870459073</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9512,7 +9700,7 @@
         <v>-275702.6015954092</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9545,7 +9733,7 @@
         <v>-370598.3835954092</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -16343,7 +16531,7 @@
         <v>-1502309.88289177</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17597,7 +17785,7 @@
         <v>-1944711.192703126</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
